--- a/pred_ohlcv/54_21/2019-10-26 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 RDN ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-7953.075144444449</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-10762.06374444445</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-12383.86044444445</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9342.96694444445</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9142.96694444445</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-6317.041144444449</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-16094.62691295274</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17804.62691295274</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1322.376693974973</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-28465.97845720893</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-28464.88455720893</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-31773.84285720893</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-21917.39705720894</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-24687.27125720894</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1888.375170252417</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2611.375070252417</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>2595.524742791061</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-14748.57495720894</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-16553.32465720894</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-56607.89755720894</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-57891.33675720894</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-57889.33675720894</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-59091.23445720894</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-57251.52889633938</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-57013.53480668015</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-60947.80650668015</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-60657.70400668015</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-119778.8929066801</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-114691.7301066801</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-115797.8621066801</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-121843.3758066801</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-117287.3758066801</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-117335.1866066801</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-114814.4271066801</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-115419.4271066801</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-117929.2895066801</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-115471.4781066801</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-115470.4781066801</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 RDN ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>-7953.075144444449</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-10762.06374444445</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-12383.86044444445</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-9342.96694444445</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9642.96694444445</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9142.96694444445</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9544.96694444445</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8978.149944444449</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-6317.041144444449</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-16094.62691295274</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-17070.62691295274</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-17805.62691295274</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-17804.62691295274</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-19300.65791295273</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-27262.32330602503</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>1322.376693974973</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-28465.97845720893</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-28464.88455720893</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-31773.84285720893</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-25177.36445720893</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-25497.13185720894</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-21917.39705720894</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-24687.27125720894</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1901.076257208939</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1888.375170252417</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2611.375070252417</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-15616.01815720894</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15273.92105720894</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-14748.57495720894</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-16553.32465720894</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-25238.32465720894</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-56607.89755720894</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-56329.60010668015</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-57013.53480668015</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-59581.05390668015</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-113665.1659066801</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-117287.3758066801</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-117335.1866066801</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-116934.1866066801</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-114814.4271066801</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-114840.4271066801</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-115420.4271066801</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-115419.4271066801</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-117929.2895066801</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-117928.2895066801</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-115471.4781066801</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-115493.1340066801</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-115470.4781066801</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
